--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed4/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-13.3563</v>
+        <v>-13.3512</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>4.9999</v>
+        <v>5.885000000000008</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.9099</v>
+        <v>-12.31590000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.186400000000006</v>
+        <v>-7.644200000000005</v>
       </c>
     </row>
     <row r="10">
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.4987</v>
+        <v>-13.6794</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -614,7 +614,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>6.717199999999998</v>
+        <v>6.342500000000001</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -656,10 +656,10 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.869699999999996</v>
+        <v>4.939299999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.8658</v>
+        <v>-13.7762</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.158299999999997</v>
+        <v>6.415899999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.420699999999997</v>
+        <v>8.263100000000003</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.225100000000005</v>
+        <v>-8.112200000000007</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.9986</v>
+        <v>-12.9652</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.7699</v>
+        <v>-12.5203</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -796,10 +796,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.237900000000002</v>
+        <v>5.358300000000002</v>
       </c>
       <c r="C26" t="n">
-        <v>-13.37070000000001</v>
+        <v>-12.96450000000001</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,13 +810,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.062400000000005</v>
+        <v>6.170700000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.8723</v>
+        <v>-7.858600000000003</v>
       </c>
     </row>
     <row r="28">
@@ -838,13 +838,13 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.660699999999999</v>
+        <v>5.211900000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.228299999999993</v>
+        <v>-7.437099999999988</v>
       </c>
     </row>
     <row r="30">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.000899999999991</v>
+        <v>-6.811399999999993</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.4301</v>
+        <v>-11.87620000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -922,10 +922,10 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.07670000000001</v>
+        <v>8.042700000000007</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.89040000000001</v>
+        <v>-13.09980000000002</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.778700000000008</v>
+        <v>8.779000000000009</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -956,7 +956,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.733600000000001</v>
+        <v>-7.607800000000002</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.568500000000008</v>
+        <v>-7.581600000000005</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.074799999999991</v>
+        <v>-8.02859999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.469400000000002</v>
+        <v>-8.221800000000004</v>
       </c>
     </row>
     <row r="42">
@@ -1051,7 +1051,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.9963</v>
+        <v>-13.2017</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1062,13 +1062,13 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.724500000000004</v>
+        <v>4.742100000000005</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.464399999999994</v>
+        <v>-7.480999999999995</v>
       </c>
     </row>
     <row r="46">
@@ -1107,10 +1107,10 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-13.03929999999999</v>
+        <v>-12.7066</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.251300000000001</v>
+        <v>-8.156500000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.8167</v>
+        <v>-13.7304</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.547600000000003</v>
+        <v>-8.748000000000003</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.864</v>
+        <v>-11.1175</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.916499999999996</v>
+        <v>6.894699999999996</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.0488</v>
+        <v>-8.892300000000006</v>
       </c>
     </row>
     <row r="57">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.355799999999992</v>
+        <v>5.163099999999995</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.339899999999998</v>
+        <v>-8.333799999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1292,7 +1292,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.9962</v>
+        <v>-7.7001</v>
       </c>
     </row>
     <row r="62">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.485699999999989</v>
+        <v>-7.043299999999991</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-10.5061</v>
+        <v>-10.8751</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.48479999999999</v>
+        <v>-10.49119999999999</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.561699999999997</v>
+        <v>5.404799999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1457,7 +1457,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.00290000000001</v>
+        <v>-10.67670000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1488,7 +1488,7 @@
         <v>-14.77</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.492400000000004</v>
+        <v>-8.454000000000006</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.9037</v>
+        <v>4.713300000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>10.71110000000001</v>
+        <v>10.54900000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.19410000000001</v>
+        <v>-10.91840000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.17670000000001</v>
+        <v>-10.93830000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,13 +1580,13 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.225799999999998</v>
+        <v>5.1506</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
       </c>
       <c r="D82" t="n">
-        <v>-8.454900000000006</v>
+        <v>-8.482300000000006</v>
       </c>
     </row>
     <row r="83">
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.849100000000001</v>
+        <v>5.7028</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.088199999999997</v>
+        <v>-7.206699999999993</v>
       </c>
     </row>
     <row r="91">
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-12.9902</v>
+        <v>-12.97019999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1734,13 +1734,13 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>4.678599999999996</v>
+        <v>4.675099999999996</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.164199999999993</v>
+        <v>-7.212599999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1790,10 +1790,10 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>4.985799999999998</v>
+        <v>5.411999999999995</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.2239</v>
+        <v>-10.5472</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-13.166</v>
+        <v>-12.8723</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1866,7 +1866,7 @@
         <v>-12.7</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.666700000000009</v>
+        <v>-7.640900000000005</v>
       </c>
     </row>
     <row r="103">
@@ -1891,7 +1891,7 @@
         <v>7.61</v>
       </c>
       <c r="C104" t="n">
-        <v>-11.65210000000001</v>
+        <v>-11.93970000000001</v>
       </c>
       <c r="D104" t="n">
         <v>-7.34</v>
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-7.7535</v>
+        <v>-7.597899999999998</v>
       </c>
     </row>
   </sheetData>
